--- a/data/league_data/france/18/france_defending.xlsx
+++ b/data/league_data/france/18/france_defending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B03F06-D6C1-9A42-B6F4-4BD84EF8C31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138A05FD-0E32-1746-A612-1219805F23DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,9 +889,6 @@
     <t>ht HAI</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Neymar</t>
   </si>
   <si>
@@ -1862,6 +1859,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2728,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4660,7 +4660,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>73</v>
@@ -21168,7 +21168,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>289</v>
+        <v>613</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>73</v>
@@ -21263,7 +21263,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>73</v>
@@ -21358,7 +21358,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>32</v>
@@ -21453,7 +21453,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>227</v>
@@ -21548,7 +21548,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>98</v>
@@ -21643,7 +21643,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>32</v>
@@ -21738,7 +21738,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>32</v>
@@ -21833,7 +21833,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>73</v>
@@ -21928,7 +21928,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>256</v>
@@ -22023,10 +22023,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>44</v>
@@ -22118,7 +22118,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>77</v>
@@ -22213,7 +22213,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>64</v>
@@ -22308,7 +22308,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>214</v>
@@ -22403,10 +22403,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>44</v>
@@ -22498,7 +22498,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>32</v>
@@ -22593,10 +22593,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>71</v>
@@ -22688,7 +22688,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>32</v>
@@ -22783,10 +22783,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>44</v>
@@ -22878,7 +22878,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>32</v>
@@ -22973,7 +22973,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>32</v>
@@ -23068,7 +23068,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>77</v>
@@ -23161,7 +23161,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>94</v>
@@ -23256,7 +23256,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>32</v>
@@ -23351,7 +23351,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>94</v>
@@ -23446,7 +23446,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>32</v>
@@ -23539,7 +23539,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>98</v>
@@ -23634,7 +23634,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>32</v>
@@ -23729,7 +23729,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>166</v>
@@ -23824,7 +23824,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>77</v>
@@ -23919,7 +23919,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>32</v>
@@ -24014,7 +24014,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>32</v>
@@ -24109,7 +24109,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>223</v>
@@ -24204,7 +24204,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>166</v>
@@ -24299,7 +24299,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>214</v>
@@ -24394,7 +24394,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>227</v>
@@ -24489,7 +24489,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>32</v>
@@ -24584,7 +24584,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>77</v>
@@ -24679,7 +24679,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>108</v>
@@ -24774,7 +24774,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>32</v>
@@ -24869,7 +24869,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>244</v>
@@ -24964,7 +24964,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>182</v>
@@ -25059,7 +25059,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>32</v>
@@ -25154,7 +25154,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>110</v>
@@ -25249,7 +25249,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>263</v>
@@ -25344,7 +25344,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>244</v>
@@ -25439,7 +25439,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>32</v>
@@ -25534,7 +25534,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>227</v>
@@ -25629,7 +25629,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>108</v>
@@ -25724,7 +25724,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>32</v>
@@ -25819,7 +25819,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>32</v>
@@ -25910,7 +25910,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>32</v>
@@ -26005,7 +26005,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>94</v>
@@ -26100,7 +26100,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>73</v>
@@ -26195,7 +26195,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>32</v>
@@ -26290,10 +26290,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>44</v>
@@ -26385,7 +26385,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>32</v>
@@ -26480,7 +26480,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>73</v>
@@ -26575,7 +26575,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>32</v>
@@ -26670,7 +26670,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>77</v>
@@ -26765,7 +26765,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>32</v>
@@ -26860,7 +26860,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>204</v>
@@ -26953,10 +26953,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>44</v>
@@ -27048,10 +27048,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>44</v>
@@ -27143,7 +27143,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>32</v>
@@ -27238,7 +27238,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>32</v>
@@ -27333,10 +27333,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>56</v>
@@ -27428,7 +27428,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>32</v>
@@ -27523,7 +27523,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>32</v>
@@ -27618,7 +27618,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>32</v>
@@ -27713,7 +27713,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>64</v>
@@ -27808,7 +27808,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>77</v>
@@ -27903,7 +27903,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>32</v>
@@ -27998,7 +27998,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>32</v>
@@ -28093,7 +28093,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>32</v>
@@ -28188,7 +28188,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>98</v>
@@ -28283,7 +28283,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>77</v>
@@ -28378,7 +28378,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>32</v>
@@ -28473,7 +28473,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>32</v>
@@ -28568,7 +28568,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>32</v>
@@ -28663,10 +28663,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>46</v>
@@ -28758,7 +28758,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>73</v>
@@ -28853,7 +28853,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>182</v>
@@ -28948,10 +28948,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>61</v>
@@ -29043,7 +29043,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>73</v>
@@ -29138,7 +29138,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>32</v>
@@ -29233,7 +29233,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>108</v>
@@ -29328,7 +29328,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>234</v>
@@ -29423,7 +29423,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>110</v>
@@ -29518,7 +29518,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>32</v>
@@ -29613,7 +29613,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>79</v>
@@ -29708,7 +29708,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>32</v>
@@ -29803,10 +29803,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>44</v>
@@ -29898,7 +29898,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>32</v>
@@ -29993,7 +29993,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>204</v>
@@ -30088,7 +30088,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>246</v>
@@ -30183,7 +30183,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>94</v>
@@ -30278,7 +30278,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>32</v>
@@ -30373,7 +30373,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>32</v>
@@ -30464,7 +30464,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>32</v>
@@ -30559,10 +30559,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>44</v>
@@ -30654,7 +30654,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>214</v>
@@ -30749,7 +30749,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>182</v>
@@ -30844,7 +30844,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>32</v>
@@ -30939,7 +30939,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>32</v>
@@ -31034,7 +31034,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>244</v>
@@ -31129,10 +31129,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>44</v>
@@ -31224,7 +31224,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>98</v>
@@ -31319,7 +31319,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>94</v>
@@ -31414,10 +31414,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>46</v>
@@ -31509,10 +31509,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>44</v>
@@ -31604,10 +31604,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>59</v>
@@ -31699,7 +31699,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>86</v>
@@ -31794,7 +31794,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>32</v>
@@ -31889,7 +31889,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>236</v>
@@ -31984,7 +31984,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>246</v>
@@ -32079,7 +32079,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>32</v>
@@ -32174,7 +32174,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>28</v>
@@ -32269,7 +32269,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>77</v>
@@ -32364,7 +32364,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>32</v>
@@ -32459,7 +32459,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>32</v>
@@ -32554,7 +32554,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>204</v>
@@ -32649,7 +32649,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>204</v>
@@ -32744,7 +32744,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>121</v>
@@ -32839,7 +32839,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>227</v>
@@ -32934,7 +32934,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>94</v>
@@ -33029,7 +33029,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>32</v>
@@ -33124,7 +33124,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>77</v>
@@ -33219,7 +33219,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>32</v>
@@ -33314,7 +33314,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>32</v>
@@ -33409,7 +33409,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>108</v>
@@ -33504,7 +33504,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>77</v>
@@ -33599,7 +33599,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>32</v>
@@ -33694,7 +33694,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>204</v>
@@ -33789,7 +33789,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>32</v>
@@ -33884,7 +33884,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>49</v>
@@ -33979,10 +33979,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>44</v>
@@ -34074,7 +34074,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>114</v>
@@ -34169,7 +34169,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>32</v>
@@ -34262,10 +34262,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>71</v>
@@ -34357,7 +34357,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>288</v>
@@ -34452,7 +34452,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>246</v>
@@ -34547,10 +34547,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>59</v>
@@ -34642,7 +34642,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>32</v>
@@ -34737,7 +34737,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>94</v>
@@ -34832,7 +34832,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>90</v>
@@ -34927,7 +34927,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>32</v>
@@ -35022,7 +35022,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>98</v>
@@ -35117,7 +35117,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>32</v>
@@ -35212,7 +35212,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>223</v>
@@ -35307,7 +35307,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>108</v>
@@ -35402,7 +35402,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>77</v>
@@ -35497,10 +35497,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>105</v>
@@ -35592,7 +35592,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>110</v>
@@ -35687,7 +35687,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>32</v>
@@ -35780,7 +35780,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>32</v>
@@ -35875,7 +35875,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>32</v>
@@ -35970,7 +35970,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>160</v>
@@ -36065,10 +36065,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>461</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>61</v>
@@ -36160,7 +36160,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>28</v>
@@ -36255,7 +36255,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>77</v>
@@ -36350,7 +36350,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>108</v>
@@ -36445,10 +36445,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>44</v>
@@ -36540,10 +36540,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>59</v>
@@ -36635,7 +36635,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>32</v>
@@ -36730,7 +36730,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>32</v>
@@ -36825,7 +36825,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>32</v>
@@ -36918,7 +36918,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>223</v>
@@ -37013,7 +37013,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>32</v>
@@ -37108,7 +37108,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>32</v>
@@ -37203,7 +37203,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>32</v>
@@ -37298,10 +37298,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>44</v>
@@ -37393,7 +37393,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>108</v>
@@ -37488,7 +37488,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>108</v>
@@ -37583,7 +37583,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>263</v>
@@ -37678,7 +37678,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>32</v>
@@ -37773,7 +37773,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>32</v>
@@ -37868,7 +37868,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>64</v>
@@ -37963,7 +37963,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>174</v>
@@ -38058,10 +38058,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>105</v>
@@ -38153,7 +38153,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>244</v>
@@ -38248,7 +38248,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>32</v>
@@ -38343,7 +38343,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>73</v>
@@ -38438,7 +38438,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>32</v>
@@ -38533,7 +38533,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>77</v>
@@ -38628,7 +38628,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>32</v>
@@ -38723,10 +38723,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>56</v>
@@ -38818,7 +38818,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>32</v>
@@ -38913,7 +38913,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>94</v>
@@ -39008,7 +39008,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>32</v>
@@ -39103,7 +39103,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>32</v>
@@ -39196,7 +39196,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>32</v>
@@ -39291,7 +39291,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>32</v>
@@ -39386,7 +39386,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>79</v>
@@ -39481,7 +39481,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>32</v>
@@ -39576,7 +39576,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>73</v>
@@ -39671,7 +39671,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>32</v>
@@ -39766,7 +39766,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>32</v>
@@ -39861,7 +39861,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>94</v>
@@ -39956,7 +39956,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>32</v>
@@ -40051,7 +40051,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>90</v>
@@ -40146,7 +40146,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>32</v>
@@ -40241,7 +40241,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>77</v>
@@ -40336,7 +40336,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>77</v>
@@ -40431,10 +40431,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C398" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>508</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>44</v>
@@ -40526,7 +40526,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>244</v>
@@ -40621,7 +40621,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>32</v>
@@ -40716,7 +40716,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>32</v>
@@ -40811,7 +40811,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>32</v>
@@ -40906,7 +40906,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>53</v>
@@ -41001,7 +41001,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>32</v>
@@ -41096,7 +41096,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>204</v>
@@ -41191,7 +41191,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>79</v>
@@ -41286,7 +41286,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>98</v>
@@ -41381,7 +41381,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>32</v>
@@ -41476,7 +41476,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>79</v>
@@ -41571,10 +41571,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>59</v>
@@ -41666,7 +41666,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>32</v>
@@ -41761,7 +41761,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>166</v>
@@ -41856,7 +41856,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>79</v>
@@ -41951,10 +41951,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>71</v>
@@ -42046,10 +42046,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>44</v>
@@ -42141,7 +42141,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>32</v>
@@ -42232,7 +42232,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>182</v>
@@ -42323,7 +42323,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>252</v>
@@ -42416,10 +42416,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>29</v>
@@ -42507,7 +42507,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>32</v>
@@ -42602,7 +42602,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>32</v>
@@ -42697,7 +42697,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>32</v>
@@ -42792,7 +42792,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>90</v>
@@ -42887,7 +42887,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>110</v>
@@ -42982,10 +42982,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>44</v>
@@ -43077,7 +43077,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>32</v>
@@ -43172,7 +43172,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>227</v>
@@ -43267,7 +43267,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>32</v>
@@ -43362,7 +43362,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>28</v>
@@ -43457,10 +43457,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>29</v>
@@ -43548,7 +43548,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>32</v>
@@ -43643,7 +43643,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>32</v>
@@ -43734,7 +43734,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>32</v>
@@ -43924,7 +43924,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>32</v>
@@ -44019,7 +44019,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>32</v>
@@ -44114,7 +44114,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>32</v>
@@ -44209,7 +44209,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>32</v>
@@ -44300,7 +44300,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>77</v>
@@ -44391,7 +44391,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>32</v>
@@ -44486,7 +44486,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>32</v>
@@ -44581,7 +44581,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>32</v>
@@ -44674,7 +44674,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>166</v>
@@ -44769,7 +44769,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>77</v>
@@ -44864,7 +44864,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>77</v>
@@ -44955,7 +44955,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>32</v>
@@ -45050,10 +45050,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>556</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>44</v>
@@ -45240,10 +45240,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>29</v>
@@ -45331,7 +45331,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>32</v>
@@ -45426,7 +45426,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>64</v>
@@ -45521,10 +45521,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>61</v>
@@ -45616,7 +45616,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>32</v>
@@ -45711,10 +45711,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>46</v>
@@ -45806,7 +45806,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>223</v>
@@ -45901,7 +45901,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>110</v>
@@ -45996,7 +45996,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>94</v>
@@ -46089,7 +46089,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>32</v>
@@ -46184,10 +46184,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>46</v>
@@ -46279,7 +46279,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>110</v>
@@ -46374,7 +46374,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>32</v>
@@ -46469,7 +46469,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>204</v>
@@ -46564,7 +46564,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>32</v>
@@ -46659,7 +46659,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>32</v>
@@ -46750,7 +46750,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>32</v>
@@ -46845,10 +46845,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>46</v>
@@ -46940,7 +46940,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>32</v>
@@ -47035,7 +47035,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>223</v>
@@ -47130,7 +47130,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>32</v>
@@ -47225,7 +47225,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>256</v>
@@ -47320,7 +47320,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>77</v>
@@ -47415,7 +47415,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>32</v>
@@ -47510,7 +47510,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>32</v>
@@ -47605,7 +47605,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>32</v>
@@ -47698,7 +47698,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>98</v>
@@ -47793,10 +47793,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>71</v>
@@ -47888,7 +47888,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>108</v>
@@ -47983,10 +47983,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C478" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>59</v>
@@ -48076,7 +48076,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>32</v>
@@ -48171,13 +48171,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>72</v>
@@ -48266,7 +48266,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>32</v>
@@ -48361,10 +48361,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>150</v>
@@ -48456,7 +48456,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>256</v>
@@ -48551,7 +48551,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>32</v>
@@ -48646,7 +48646,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>32</v>
@@ -48741,7 +48741,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>32</v>
@@ -48836,7 +48836,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>32</v>
@@ -48927,7 +48927,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>32</v>
@@ -49022,7 +49022,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>32</v>
@@ -49113,7 +49113,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>32</v>
@@ -49206,7 +49206,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>227</v>
@@ -49301,10 +49301,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>44</v>
@@ -49396,7 +49396,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>244</v>
@@ -49491,7 +49491,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>32</v>
@@ -49586,7 +49586,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>204</v>
@@ -49679,7 +49679,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>32</v>
@@ -49772,7 +49772,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>79</v>
@@ -49865,7 +49865,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>73</v>
@@ -49960,7 +49960,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>73</v>
@@ -50055,7 +50055,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>73</v>
